--- a/geodata/2022_Qanassiasat_GreenlandTrees.xlsx
+++ b/geodata/2022_Qanassiasat_GreenlandTrees.xlsx
@@ -477,26 +477,16 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022/Aug/24</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>engelmanni</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+          <t>2022/Aug/27</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>61.2349</t>
@@ -504,70 +494,52 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-45.4969</t>
+          <t>-45.4965</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022/Aug/24</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>sibirca</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>16</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>2022/Aug/25</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>61.2349</t>
+          <t>61.2350</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-45.4967</t>
+          <t>-45.4968</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>-16</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022/Aug/27</t>
+          <t>2022/Aug/25</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -575,430 +547,294 @@
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>61.2346</t>
+          <t>61.2349</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-45.4958</t>
+          <t>-45.4969</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>-5</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2022/Aug/26</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>sibirca</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>8</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
+          <t>2022/Aug/25</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>61.2354</t>
+          <t>61.2350</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-45.4974</t>
+          <t>-45.4969</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>-25</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2022/Aug/26</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>sibirca</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>6</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
+          <t>2022/Aug/25</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>61.2354</t>
+          <t>61.2350</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-45.4973</t>
+          <t>-45.4969</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>-25</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2022/Aug/26</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>sibirca</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>12</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
+          <t>2022/Aug/25</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>61.2353</t>
+          <t>61.2349</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-45.4973</t>
+          <t>-45.4968</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>-25</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2022/Aug/26</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>sibirca</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>16</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
+          <t>2022/Aug/25</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>61.2353</t>
+          <t>61.2349</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>-45.4974</t>
+          <t>-45.4968</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>-25</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2022/Aug/26</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>sibirca</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>15</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
+          <t>2022/Aug/25</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>61.2353</t>
+          <t>61.2350</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>-45.4973</t>
+          <t>-45.4970</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>-25</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2022/Aug/26</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>sibirca</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>6</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
+          <t>2022/Aug/25</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>61.2352</t>
+          <t>61.2350</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>-45.4973</t>
+          <t>-45.4970</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>-25</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2022/Aug/26</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>sibirca</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>10</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
+          <t>2022/Aug/25</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>61.2352</t>
+          <t>61.2349</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>-45.4973</t>
+          <t>-45.4969</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>-25</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2022/Aug/26</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>sibirca</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>11</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
+          <t>2022/Aug/27</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>61.2352</t>
+          <t>61.2348</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>-45.4972</t>
+          <t>-45.4964</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>-25</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2022/Aug/26</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>sibirca</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>15</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
+          <t>2022/Aug/27</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>61.2351</t>
+          <t>61.2349</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>-45.4973</t>
+          <t>-45.4965</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>-25</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>2022/Aug/26</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>sibirca</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>7</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
           <t>61.2351</t>
@@ -1006,45 +842,31 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>-45.4973</t>
+          <t>-45.4969</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>-25</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
+          <t>-23</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2022/Aug/26</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>engelmanni</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>8</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
+          <t>2022/Aug/27</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>61.2351</t>
+          <t>61.2352</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1054,123 +876,81 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>-25</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2022/Aug/26</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>sibirca</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>11</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
+          <t>2022/Aug/27</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>61.2351</t>
+          <t>61.2346</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>-45.4972</t>
+          <t>-45.4958</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>-24</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2022/Aug/26</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>sibirca</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
+          <t>2022/Aug/27</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>61.2350</t>
+          <t>61.2353</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>-45.4972</t>
+          <t>-45.4970</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>-24</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2022/Aug/26</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>sibirca</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>14</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
+          <t>2022/Aug/25</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
           <t>61.2350</t>
@@ -1178,195 +958,135 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>-45.4971</t>
+          <t>-45.4968</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>-27</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2022/Aug/26</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>sibirca</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>11</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
+          <t>2022/Aug/27</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>61.2350</t>
+          <t>61.2353</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>-45.4970</t>
+          <t>-45.4969</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>-25</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2022/Aug/26</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>sibirca</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>10</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
+          <t>2022/Aug/25</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>61.2351</t>
+          <t>61.2350</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>-45.4970</t>
+          <t>-45.4969</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>-25</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2022/Aug/26</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>sibirca</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>7</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
+          <t>2022/Aug/27</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>61.2351</t>
+          <t>61.2346</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>-45.4969</t>
+          <t>-45.4957</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>-23</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>Maurice van Tiggelen</t>
-        </is>
-      </c>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2022/Aug/26</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>sibirca</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>11</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
+          <t>2022/Aug/27</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>61.2351</t>
+          <t>61.2346</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>-45.4968</t>
+          <t>-45.4958</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>-23</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1375,15 +1095,15 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>sibirca</t>
+          <t>contorta</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1393,12 +1113,12 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>-45.4968</t>
+          <t>-45.4973</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>-23</t>
+          <t>-25</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1409,11 +1129,11 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2022/Aug/26</t>
+          <t>2022/Aug/24</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1422,26 +1142,26 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>61.2351</t>
+          <t>61.2349</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>-45.4967</t>
+          <t>-45.4966</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>-23</t>
+          <t>28</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1452,39 +1172,39 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2022/Aug/26</t>
+          <t>2022/Aug/24</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>contorta</t>
+          <t>sibirca</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>61.2351</t>
+          <t>61.2349</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>-45.4966</t>
+          <t>-45.4969</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>-23</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1495,29 +1215,29 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2022/Aug/27</t>
+          <t>2022/Aug/24</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>contorta</t>
+          <t>sibirca</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>61.2353</t>
+          <t>61.2349</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1527,22 +1247,22 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Qassiarsuk School</t>
+          <t>GT</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2022/Aug/27</t>
+          <t>2022/Aug/24</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1551,69 +1271,69 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>24</v>
+        <v>5.5</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>12</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>61.2353</t>
+          <t>61.2349</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>-45.4970</t>
+          <t>-45.4969</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Qassiarsuk School</t>
+          <t>GT</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2022/Aug/27</t>
+          <t>2022/Aug/24</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>engelmanni</t>
+          <t>sibirca</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>61.2353</t>
+          <t>61.2349</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>-45.4971</t>
+          <t>-45.4969</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1624,39 +1344,39 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2022/Aug/27</t>
+          <t>2022/Aug/24</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>sibirca</t>
+          <t>engelmanni</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>14</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>61.2353</t>
+          <t>61.2349</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>-45.4971</t>
+          <t>-45.4969</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -1667,39 +1387,39 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2022/Aug/27</t>
+          <t>2022/Aug/24</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>contorta</t>
+          <t>sibirca</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>61.2353</t>
+          <t>61.2349</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>-45.4971</t>
+          <t>-45.4969</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -1710,11 +1430,11 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2022/Aug/27</t>
+          <t>2022/Aug/24</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1723,26 +1443,26 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>61.2353</t>
+          <t>61.2347</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>-45.4971</t>
+          <t>-45.4966</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-13</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -1753,11 +1473,11 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2022/Aug/27</t>
+          <t>2022/Aug/24</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1766,26 +1486,26 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>17</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>61.2353</t>
+          <t>61.2347</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>-45.4971</t>
+          <t>-45.4968</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>-0</t>
+          <t>-17</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -1796,39 +1516,39 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2022/Aug/27</t>
+          <t>2022/Aug/24</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>sibirca</t>
+          <t>contorta</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>18</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>61.2353</t>
+          <t>61.2347</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>-45.4971</t>
+          <t>-45.4966</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>-0</t>
+          <t>-15</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -1839,11 +1559,11 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2022/Aug/27</t>
+          <t>2022/Aug/24</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1852,26 +1572,26 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>19</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>61.2353</t>
+          <t>61.2348</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>-45.4971</t>
+          <t>-45.4966</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>-0</t>
+          <t>-15</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -1882,11 +1602,11 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2022/Aug/27</t>
+          <t>2022/Aug/24</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1895,26 +1615,26 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>61.2352</t>
+          <t>61.2349</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>-45.4972</t>
+          <t>-45.4969</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>-0</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -1925,7 +1645,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1938,26 +1658,26 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>61.2352</t>
+          <t>61.2353</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>-45.4972</t>
+          <t>-45.4971</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>-0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -1968,11 +1688,11 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2022/Aug/27</t>
+          <t>2022/Aug/24</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1981,26 +1701,26 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>61.2352</t>
+          <t>61.2348</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>-45.4972</t>
+          <t>-45.4965</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>-0</t>
+          <t>-14</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2011,112 +1731,140 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2022/Aug/27</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
+          <t>2022/Aug/24</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>sibirca</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>3</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>61.2352</t>
+          <t>61.2348</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>-45.4973</t>
+          <t>-45.4965</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr"/>
+          <t>-14</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>GT</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2022/Aug/27</t>
+          <t>2022/Aug/24</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>sibirca</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Aili</t>
+          <t>22</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>61.2349</t>
+          <t>61.2347</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>-45.4965</t>
+          <t>-45.4968</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>-16</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Narsaq School</t>
+          <t>GT</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2022/Aug/27</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
+          <t>2022/Aug/24</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>sibirca</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>22</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>61.2346</t>
+          <t>61.2348</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>-45.4958</t>
+          <t>-45.4968</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr"/>
+          <t>-17</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>GT</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2022/Aug/27</t>
+          <t>2022/Aug/24</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2125,142 +1873,170 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Alya DP</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>61.2352</t>
+          <t>61.2348</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>-45.4970</t>
+          <t>-45.4968</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-17</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Qassiarsuk School</t>
+          <t>GT</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2022/Aug/27</t>
+          <t>2022/Aug/24</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>sibirca</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>82</v>
+        <v>7</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Charlie</t>
+          <t>25</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>61.2346</t>
+          <t>61.2348</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>-45.4958</t>
+          <t>-45.4968</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>-16</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Narsaq School</t>
+          <t>GT</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2022/Aug/27</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
+          <t>2022/Aug/24</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>sibirca</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>14</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>61.2346</t>
+          <t>61.2349</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>-45.4957</t>
+          <t>-45.4968</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr"/>
+          <t>-15</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>GT</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2022/Aug/27</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
+          <t>2022/Aug/24</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>sibirca</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>6</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>61.2353</t>
+          <t>61.2349</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>-45.4969</t>
+          <t>-45.4967</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr"/>
+          <t>-16</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>GT</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2022/Aug/27</t>
+          <t>2022/Aug/24</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2269,26 +2045,26 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Hansgaard</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>61.2351</t>
+          <t>61.2349</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>-45.4972</t>
+          <t>-45.4967</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>-16</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2299,45 +2075,69 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2022/Aug/27</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
+          <t>2022/Aug/26</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>sibirca</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>8</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>61.2353</t>
+          <t>61.2354</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>-45.4970</t>
+          <t>-45.4974</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr"/>
+          <t>-25</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>GT</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2022/Aug/27</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
+          <t>2022/Aug/24</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>sibirca</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>13</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="F47" t="inlineStr">
         <is>
           <t>61.2349</t>
@@ -2345,28 +2145,42 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>-45.4965</t>
+          <t>-45.4969</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr"/>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>GT</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2022/Aug/26</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
+          <t>2022/Aug/27</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>sibirca</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>13</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="F48" t="inlineStr">
         <is>
           <t>61.2351</t>
@@ -2379,18 +2193,22 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>-23</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr"/>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>GT</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2022/Aug/27</t>
+          <t>2022/Aug/26</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2399,84 +2217,84 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Paige G</t>
+          <t>30</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>61.2352</t>
+          <t>61.2354</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>-45.4971</t>
+          <t>-45.4973</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-25</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Qassiarsuk School</t>
+          <t>GT</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2022/Aug/27</t>
+          <t>2022/Aug/26</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>sibirca</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Paninnguaq</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>61.2346</t>
+          <t>61.2353</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>-45.4957</t>
+          <t>-45.4973</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>-25</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Narsaq School</t>
+          <t>GT</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2022/Aug/27</t>
+          <t>2022/Aug/26</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2485,11 +2303,11 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Sam S</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2499,249 +2317,343 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>-45.4970</t>
+          <t>-45.4974</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>-0</t>
+          <t>-25</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Qassiarsuk School</t>
+          <t>GT</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2022/Aug/27</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
+          <t>2022/Aug/26</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>sibirca</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>15</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>61.2349</t>
+          <t>61.2353</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>-45.4965</t>
+          <t>-45.4973</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr"/>
+          <t>-25</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>GT</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2022/Aug/27</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
+          <t>2022/Aug/26</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>sibirca</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>6</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>61.2348</t>
+          <t>61.2352</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>-45.4964</t>
+          <t>-45.4973</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr"/>
+          <t>-25</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>GT</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2022/Aug/27</t>
+          <t>2022/Aug/26</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>sibirca</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Viiva</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>61.2349</t>
+          <t>61.2352</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>-45.4964</t>
+          <t>-45.4973</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>-25</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Narsaq School</t>
+          <t>GT</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2022/Aug/25</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
+          <t>2022/Aug/26</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>sibirca</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>11</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>61.2349</t>
+          <t>61.2352</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>-45.4969</t>
+          <t>-45.4972</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr"/>
+          <t>-25</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>GT</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2022/Aug/25</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
+          <t>2022/Aug/26</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>sibirca</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>15</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>61.2350</t>
+          <t>61.2351</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>-45.4970</t>
+          <t>-45.4973</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr"/>
+          <t>-25</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>GT</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2022/Aug/25</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr"/>
+          <t>2022/Aug/26</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>sibirca</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>7</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>61.2350</t>
+          <t>61.2351</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>-45.4970</t>
+          <t>-45.4973</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr"/>
+          <t>-25</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>GT</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2022/Aug/25</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr"/>
+          <t>2022/Aug/26</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>engelmanni</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>8</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>61.2349</t>
+          <t>61.2351</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>-45.4968</t>
+          <t>-45.4973</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr"/>
+          <t>-25</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>GT</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2022/Aug/25</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr"/>
+          <t>2022/Aug/24</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>engelmanni</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>10</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="F59" t="inlineStr">
         <is>
           <t>61.2349</t>
@@ -2749,31 +2661,45 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>-45.4968</t>
+          <t>-45.4965</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr"/>
+          <t>-14</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>GT</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2022/Aug/25</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr"/>
+          <t>2022/Aug/24</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>engelmanni</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>10</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>61.2350</t>
+          <t>61.2349</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -2783,81 +2709,123 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr"/>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>GT</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2022/Aug/25</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr"/>
+          <t>2022/Aug/26</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>sibirca</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>11</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>61.2350</t>
+          <t>61.2351</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>-45.4969</t>
+          <t>-45.4972</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr"/>
+          <t>-24</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>GT</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2022/Aug/25</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr"/>
+          <t>2022/Aug/26</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>sibirca</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>61.2349</t>
+          <t>61.2350</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>-45.4969</t>
+          <t>-45.4972</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr"/>
+          <t>-24</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>GT</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2022/Aug/25</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr"/>
+          <t>2022/Aug/26</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>sibirca</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>14</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
       <c r="F63" t="inlineStr">
         <is>
           <t>61.2350</t>
@@ -2865,28 +2833,42 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>-45.4968</t>
+          <t>-45.4971</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr"/>
+          <t>-27</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>GT</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2022/Aug/25</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr"/>
+          <t>2022/Aug/26</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>sibirca</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>11</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
       <c r="F64" t="inlineStr">
         <is>
           <t>61.2350</t>
@@ -2894,95 +2876,113 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>-45.4968</t>
+          <t>-45.4970</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr"/>
+          <t>-25</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>GT</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2022/Aug/25</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr"/>
+          <t>2022/Aug/26</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>sibirca</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>10</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>61.2350</t>
+          <t>61.2351</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>-45.4969</t>
+          <t>-45.4970</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr"/>
+          <t>-25</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>GT</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2022/Aug/24</t>
+          <t>2022/Aug/26</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>contorta</t>
+          <t>sibirca</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>61.2349</t>
+          <t>61.2351</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>-45.4966</t>
+          <t>-45.4969</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>-23</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>GT</t>
+          <t>Maurice van Tiggelen</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2022/Aug/24</t>
+          <t>2022/Aug/26</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2991,26 +2991,26 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>61.2349</t>
+          <t>61.2351</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>-45.4969</t>
+          <t>-45.4968</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-23</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -3021,11 +3021,11 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2022/Aug/24</t>
+          <t>2022/Aug/26</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3034,26 +3034,26 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>61.2349</t>
+          <t>61.2351</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>-45.4969</t>
+          <t>-45.4968</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-23</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -3064,39 +3064,39 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2022/Aug/24</t>
+          <t>2022/Aug/26</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>engelmanni</t>
+          <t>contorta</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>61.2349</t>
+          <t>61.2351</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>-45.4965</t>
+          <t>-45.4967</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>-14</t>
+          <t>-23</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -3107,39 +3107,39 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2022/Aug/24</t>
+          <t>2022/Aug/26</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>sibirca</t>
+          <t>contorta</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>61.2349</t>
+          <t>61.2351</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>-45.4965</t>
+          <t>-45.4966</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>-16</t>
+          <t>-23</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -3150,7 +3150,7 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -3163,11 +3163,11 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -3193,7 +3193,7 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -3206,11 +3206,11 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -3220,12 +3220,12 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>-45.4969</t>
+          <t>-45.4965</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-16</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -3236,7 +3236,7 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -3249,11 +3249,11 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -3263,12 +3263,12 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>-45.4969</t>
+          <t>-45.4967</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-16</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -3279,29 +3279,29 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2022/Aug/24</t>
+          <t>2022/Aug/27</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>sibirca</t>
+          <t>contorta</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>63</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>61.2349</t>
+          <t>61.2353</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -3311,22 +3311,22 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>GT</t>
+          <t>Qassiarsuk School</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2022/Aug/24</t>
+          <t>2022/Aug/27</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3335,69 +3335,69 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>64</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>61.2349</t>
+          <t>61.2353</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>-45.4969</t>
+          <t>-45.4970</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>GT</t>
+          <t>Qassiarsuk School</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2022/Aug/24</t>
+          <t>2022/Aug/27</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>sibirca</t>
+          <t>engelmanni</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>65</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>61.2349</t>
+          <t>61.2353</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>-45.4969</t>
+          <t>-45.4971</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -3408,11 +3408,11 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2022/Aug/24</t>
+          <t>2022/Aug/27</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3421,26 +3421,26 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>5.5</v>
+        <v>13</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>66</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>61.2349</t>
+          <t>61.2353</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>-45.4969</t>
+          <t>-45.4971</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -3451,39 +3451,39 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2022/Aug/24</t>
+          <t>2022/Aug/27</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>sibirca</t>
+          <t>contorta</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>67</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>61.2349</t>
+          <t>61.2353</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>-45.4969</t>
+          <t>-45.4971</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -3494,39 +3494,39 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2022/Aug/24</t>
+          <t>2022/Aug/27</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>engelmanni</t>
+          <t>sibirca</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>68</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>61.2349</t>
+          <t>61.2353</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>-45.4969</t>
+          <t>-45.4971</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -3537,11 +3537,11 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2022/Aug/24</t>
+          <t>2022/Aug/27</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3550,26 +3550,26 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>69</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>61.2349</t>
+          <t>61.2353</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>-45.4969</t>
+          <t>-45.4971</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -3580,7 +3580,7 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -3597,22 +3597,22 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>7</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>61.2347</t>
+          <t>61.2349</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>-45.4966</t>
+          <t>-45.4969</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>-13</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -3623,11 +3623,11 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2022/Aug/24</t>
+          <t>2022/Aug/27</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3636,26 +3636,26 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>70</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>61.2347</t>
+          <t>61.2353</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>-45.4968</t>
+          <t>-45.4971</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>-17</t>
+          <t>-0</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -3666,39 +3666,39 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2022/Aug/24</t>
+          <t>2022/Aug/27</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>contorta</t>
+          <t>sibirca</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>71</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>61.2347</t>
+          <t>61.2353</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>-45.4966</t>
+          <t>-45.4971</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>-15</t>
+          <t>-0</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -3709,11 +3709,11 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2022/Aug/24</t>
+          <t>2022/Aug/27</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3722,26 +3722,26 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>61.2348</t>
+          <t>61.2352</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>-45.4966</t>
+          <t>-45.4972</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>-15</t>
+          <t>-0</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -3752,11 +3752,11 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2022/Aug/24</t>
+          <t>2022/Aug/27</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3765,26 +3765,26 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>73</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>61.2348</t>
+          <t>61.2352</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>-45.4965</t>
+          <t>-45.4972</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>-14</t>
+          <t>-0</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -3795,11 +3795,11 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2022/Aug/24</t>
+          <t>2022/Aug/27</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3808,26 +3808,26 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>61.2348</t>
+          <t>61.2352</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>-45.4965</t>
+          <t>-45.4972</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>-14</t>
+          <t>-0</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -3838,7 +3838,7 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -3851,26 +3851,26 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>8</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>61.2347</t>
+          <t>61.2349</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>-45.4968</t>
+          <t>-45.4969</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>-16</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -3881,7 +3881,7 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -3894,26 +3894,26 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>9</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>61.2348</t>
+          <t>61.2349</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>-45.4968</t>
+          <t>-45.4969</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>-17</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -3924,54 +3924,54 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2022/Aug/24</t>
+          <t>2022/Aug/27</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>sibirca</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>Aili</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>61.2348</t>
+          <t>61.2349</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>-45.4968</t>
+          <t>-45.4965</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>-17</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>GT</t>
+          <t>Narsaq School</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2022/Aug/24</t>
+          <t>2022/Aug/27</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3980,84 +3980,84 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>Alya DP</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>61.2348</t>
+          <t>61.2352</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>-45.4968</t>
+          <t>-45.4970</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>-16</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>GT</t>
+          <t>Qassiarsuk School</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2022/Aug/24</t>
+          <t>2022/Aug/27</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>sibirca</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>Charlie</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>61.2349</t>
+          <t>61.2346</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>-45.4968</t>
+          <t>-45.4958</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>-15</t>
+          <t>6</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>GT</t>
+          <t>Narsaq School</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>90</v>
+        <v>43</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2022/Aug/24</t>
+          <t>2022/Aug/27</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4066,26 +4066,26 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>Hansgaard</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>61.2349</t>
+          <t>61.2351</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>-45.4967</t>
+          <t>-45.4972</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>-16</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -4096,93 +4096,93 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2022/Aug/24</t>
+          <t>2022/Aug/27</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>sibirca</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>Kanku</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>61.2349</t>
+          <t>61.2346</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>-45.4967</t>
+          <t>-45.4959</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>-16</t>
+          <t>6</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>GT</t>
+          <t>Narsaq School</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2022/Aug/26</t>
+          <t>2022/Aug/27</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>contorta</t>
+          <t>sibirca</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Paige G</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>61.2351</t>
+          <t>61.2352</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>-45.4973</t>
+          <t>-45.4971</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>-25</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>GT</t>
+          <t>Qassiarsuk School</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -4191,41 +4191,41 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>sibirca</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>Paninnguaq</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>61.2353</t>
+          <t>61.2346</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>-45.4971</t>
+          <t>-45.4957</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>GT</t>
+          <t>Narsaq School</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -4238,37 +4238,37 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>Sam S</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>61.2351</t>
+          <t>61.2353</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>-45.4969</t>
+          <t>-45.4970</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-0</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>GT</t>
+          <t>Qassiarsuk School</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -4281,26 +4281,26 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Kanku</t>
+          <t>Viiva</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>61.2346</t>
+          <t>61.2349</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>-45.4959</t>
+          <t>-45.4964</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">

--- a/geodata/2022_Qanassiasat_GreenlandTrees.xlsx
+++ b/geodata/2022_Qanassiasat_GreenlandTrees.xlsx
@@ -477,7 +477,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -506,7 +506,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -535,7 +535,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -593,7 +593,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -622,7 +622,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -651,7 +651,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -709,7 +709,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -738,7 +738,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -796,7 +796,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -825,7 +825,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -854,7 +854,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -912,7 +912,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -941,7 +941,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1172,7 +1172,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1473,7 +1473,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1516,7 +1516,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1559,7 +1559,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1602,7 +1602,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1645,7 +1645,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1817,7 +1817,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1860,7 +1860,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1946,7 +1946,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -2118,7 +2118,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -2161,7 +2161,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -2204,7 +2204,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -2290,7 +2290,7 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -2419,7 +2419,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -2505,7 +2505,7 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -2677,7 +2677,7 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -2720,7 +2720,7 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -2763,7 +2763,7 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -2849,7 +2849,7 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -2978,7 +2978,7 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -3021,7 +3021,7 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -3064,7 +3064,7 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -3150,7 +3150,7 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -3193,7 +3193,7 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -3322,7 +3322,7 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -3365,7 +3365,7 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -3580,7 +3580,7 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -3623,7 +3623,7 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -3709,7 +3709,7 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -3838,7 +3838,7 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -3881,7 +3881,7 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -3967,7 +3967,7 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -4053,7 +4053,7 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -4096,7 +4096,7 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -4139,7 +4139,7 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -4182,7 +4182,7 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -4225,7 +4225,7 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -4268,7 +4268,7 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>

--- a/geodata/2022_Qanassiasat_GreenlandTrees.xlsx
+++ b/geodata/2022_Qanassiasat_GreenlandTrees.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I97"/>
+  <dimension ref="A1:I76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>GPS_ID</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -481,28 +481,38 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022/Aug/27</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+          <t>2022/Aug/26</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>contorta</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>61.2349</t>
+          <t>61.2351</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-45.4965</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>-45.4973</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>GT</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -510,28 +520,42 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022/Aug/25</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+          <t>2022/Aug/24</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>contorta</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>12</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>61.2350</t>
+          <t>61.2349</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-45.4968</t>
+          <t>-45.4966</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>GT</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,12 +563,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022/Aug/25</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+          <t>2022/Aug/24</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>sibirca</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>18</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr">
         <is>
           <t>61.2349</t>
@@ -555,12 +589,12 @@
           <t>-45.4969</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>GT</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -568,15 +602,25 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2022/Aug/25</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+          <t>2022/Aug/24</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>sibirca</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>8</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>61.2350</t>
+          <t>61.2349</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -584,12 +628,12 @@
           <t>-45.4969</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>GT</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -597,15 +641,25 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2022/Aug/25</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+          <t>2022/Aug/24</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>sibirca</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>61.2350</t>
+          <t>61.2349</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -613,12 +667,12 @@
           <t>-45.4969</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>GT</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,12 +680,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2022/Aug/25</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+          <t>2022/Aug/24</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>sibirca</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>12</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr">
         <is>
           <t>61.2349</t>
@@ -639,15 +703,15 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-45.4968</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>-45.4969</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>GT</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -655,12 +719,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2022/Aug/25</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+          <t>2022/Aug/24</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>engelmanni</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>10</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>61.2349</t>
@@ -668,15 +742,15 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>-45.4968</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>-45.4969</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>GT</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -684,28 +758,38 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2022/Aug/25</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
+          <t>2022/Aug/24</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>sibirca</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>6</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>61.2350</t>
+          <t>61.2349</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>-45.4970</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>-45.4969</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>GT</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -713,28 +797,38 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2022/Aug/25</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
+          <t>2022/Aug/24</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>sibirca</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>7</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>61.2350</t>
+          <t>61.2347</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>-45.4970</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>-45.4966</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>GT</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -742,28 +836,38 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2022/Aug/25</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
+          <t>2022/Aug/24</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>sibirca</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>6</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>61.2349</t>
+          <t>61.2347</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>-45.4969</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>-45.4968</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>GT</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -771,28 +875,38 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2022/Aug/27</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
+          <t>2022/Aug/24</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>contorta</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>10</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>61.2348</t>
+          <t>61.2347</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>-45.4964</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>-45.4966</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>GT</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -800,28 +914,38 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2022/Aug/27</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
+          <t>2022/Aug/24</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>sibirca</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>6</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>61.2349</t>
+          <t>61.2348</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>-45.4965</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>-45.4966</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>GT</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -829,15 +953,25 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2022/Aug/26</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
+          <t>2022/Aug/24</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>sibirca</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>15</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>61.2351</t>
+          <t>61.2349</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -845,12 +979,12 @@
           <t>-45.4969</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>-23</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>GT</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -861,25 +995,35 @@
           <t>2022/Aug/27</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>sibirca</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>15</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>61.2352</t>
+          <t>61.2353</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>-45.4973</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>-45.4971</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>GT</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -887,28 +1031,38 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2022/Aug/27</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+          <t>2022/Aug/24</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>sibirca</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>5</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>61.2346</t>
+          <t>61.2348</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>-45.4958</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
+          <t>-45.4965</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>GT</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -916,28 +1070,38 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2022/Aug/27</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
+          <t>2022/Aug/24</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>sibirca</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>3</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>61.2353</t>
+          <t>61.2348</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>-45.4970</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+          <t>-45.4965</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>GT</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -945,15 +1109,25 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2022/Aug/25</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+          <t>2022/Aug/24</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>sibirca</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>8</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>61.2350</t>
+          <t>61.2347</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -961,12 +1135,12 @@
           <t>-45.4968</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>GT</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -974,28 +1148,38 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2022/Aug/27</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
+          <t>2022/Aug/24</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>sibirca</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>22</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>61.2353</t>
+          <t>61.2348</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>-45.4969</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr"/>
+          <t>-45.4968</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>GT</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1003,28 +1187,38 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2022/Aug/25</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
+          <t>2022/Aug/24</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>sibirca</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>7</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>61.2350</t>
+          <t>61.2348</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>-45.4969</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr"/>
+          <t>-45.4968</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>GT</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1032,28 +1226,38 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2022/Aug/27</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
+          <t>2022/Aug/24</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>sibirca</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>7</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>61.2346</t>
+          <t>61.2348</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>-45.4957</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr"/>
+          <t>-45.4968</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>GT</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1061,28 +1265,38 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2022/Aug/27</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
+          <t>2022/Aug/24</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>sibirca</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>14</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>61.2346</t>
+          <t>61.2349</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>-45.4958</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr"/>
+          <t>-45.4968</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>GT</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1090,37 +1304,33 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2022/Aug/26</t>
+          <t>2022/Aug/24</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>contorta</t>
+          <t>sibirca</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>27</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>61.2351</t>
+          <t>61.2349</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>-45.4973</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>-25</t>
-        </is>
-      </c>
+          <t>-45.4967</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
           <t>GT</t>
@@ -1138,15 +1348,15 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>contorta</t>
+          <t>sibirca</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1156,14 +1366,10 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>-45.4966</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
+          <t>-45.4967</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
           <t>GT</t>
@@ -1176,7 +1382,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2022/Aug/24</t>
+          <t>2022/Aug/26</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1185,28 +1391,24 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>29</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>61.2349</t>
+          <t>61.2354</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>-45.4969</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+          <t>-45.4974</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
           <t>GT</t>
@@ -1219,7 +1421,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2022/Aug/24</t>
+          <t>2022/Aug/27</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1228,16 +1430,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>61.2349</t>
+          <t>61.2351</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1245,11 +1447,7 @@
           <t>-45.4969</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
           <t>GT</t>
@@ -1271,11 +1469,11 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>5.5</v>
+        <v>13</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1288,11 +1486,7 @@
           <t>-45.4969</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
           <t>GT</t>
@@ -1305,7 +1499,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2022/Aug/24</t>
+          <t>2022/Aug/26</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1314,28 +1508,24 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>30</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>61.2349</t>
+          <t>61.2354</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>-45.4969</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+          <t>-45.4973</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
           <t>GT</t>
@@ -1348,37 +1538,33 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2022/Aug/24</t>
+          <t>2022/Aug/26</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>engelmanni</t>
+          <t>sibirca</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>61.2349</t>
+          <t>61.2353</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>-45.4969</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+          <t>-45.4973</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
           <t>GT</t>
@@ -1391,7 +1577,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2022/Aug/24</t>
+          <t>2022/Aug/26</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1400,28 +1586,24 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>61.2349</t>
+          <t>61.2353</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>-45.4969</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+          <t>-45.4974</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
           <t>GT</t>
@@ -1434,7 +1616,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2022/Aug/24</t>
+          <t>2022/Aug/26</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1443,28 +1625,24 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>61.2347</t>
+          <t>61.2353</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>-45.4966</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
+          <t>-45.4973</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
           <t>GT</t>
@@ -1477,7 +1655,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2022/Aug/24</t>
+          <t>2022/Aug/26</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1490,24 +1668,20 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>61.2347</t>
+          <t>61.2352</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>-45.4968</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>-17</t>
-        </is>
-      </c>
+          <t>-45.4973</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
           <t>GT</t>
@@ -1520,12 +1694,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2022/Aug/24</t>
+          <t>2022/Aug/26</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>contorta</t>
+          <t>sibirca</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -1533,24 +1707,20 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>61.2347</t>
+          <t>61.2352</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>-45.4966</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
+          <t>-45.4973</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
           <t>GT</t>
@@ -1563,7 +1733,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2022/Aug/24</t>
+          <t>2022/Aug/26</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1572,28 +1742,24 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>61.2348</t>
+          <t>61.2352</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>-45.4966</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
+          <t>-45.4972</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
           <t>GT</t>
@@ -1606,7 +1772,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2022/Aug/24</t>
+          <t>2022/Aug/26</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1619,24 +1785,20 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>37</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>61.2349</t>
+          <t>61.2351</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>-45.4969</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+          <t>-45.4973</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
           <t>GT</t>
@@ -1649,7 +1811,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2022/Aug/27</t>
+          <t>2022/Aug/26</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1658,28 +1820,24 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>38</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>61.2353</t>
+          <t>61.2351</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>-45.4971</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+          <t>-45.4973</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
           <t>GT</t>
@@ -1692,37 +1850,33 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2022/Aug/24</t>
+          <t>2022/Aug/26</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>sibirca</t>
+          <t>engelmanni</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>61.2348</t>
+          <t>61.2351</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>-45.4965</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
+          <t>-45.4973</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
           <t>GT</t>
@@ -1740,20 +1894,20 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>sibirca</t>
+          <t>engelmanni</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>61.2348</t>
+          <t>61.2349</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -1761,11 +1915,7 @@
           <t>-45.4965</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
           <t>GT</t>
@@ -1783,32 +1933,28 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>sibirca</t>
+          <t>engelmanni</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>61.2347</t>
+          <t>61.2349</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>-45.4968</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>-16</t>
-        </is>
-      </c>
+          <t>-45.4969</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
           <t>GT</t>
@@ -1821,7 +1967,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2022/Aug/24</t>
+          <t>2022/Aug/26</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1830,28 +1976,24 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>40</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>61.2348</t>
+          <t>61.2351</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>-45.4968</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>-17</t>
-        </is>
-      </c>
+          <t>-45.4972</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
           <t>GT</t>
@@ -1864,7 +2006,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2022/Aug/24</t>
+          <t>2022/Aug/26</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1873,28 +2015,24 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>61.2348</t>
+          <t>61.2350</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>-45.4968</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>-17</t>
-        </is>
-      </c>
+          <t>-45.4972</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
           <t>GT</t>
@@ -1907,7 +2045,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2022/Aug/24</t>
+          <t>2022/Aug/26</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1916,28 +2054,24 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>61.2348</t>
+          <t>61.2350</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>-45.4968</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>-16</t>
-        </is>
-      </c>
+          <t>-45.4971</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
           <t>GT</t>
@@ -1950,7 +2084,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2022/Aug/24</t>
+          <t>2022/Aug/26</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1959,28 +2093,24 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>43</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>61.2349</t>
+          <t>61.2350</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>-45.4968</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
+          <t>-45.4970</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
           <t>GT</t>
@@ -1993,7 +2123,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2022/Aug/24</t>
+          <t>2022/Aug/26</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2002,28 +2132,24 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>61.2349</t>
+          <t>61.2351</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>-45.4967</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>-16</t>
-        </is>
-      </c>
+          <t>-45.4970</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
           <t>GT</t>
@@ -2036,7 +2162,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2022/Aug/24</t>
+          <t>2022/Aug/26</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2045,31 +2171,27 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>61.2349</t>
+          <t>61.2351</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>-45.4967</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>-16</t>
-        </is>
-      </c>
+          <t>-45.4969</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>GT</t>
+          <t>Maurice van Tiggelen</t>
         </is>
       </c>
     </row>
@@ -2088,28 +2210,24 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>61.2354</t>
+          <t>61.2351</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>-45.4974</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>-25</t>
-        </is>
-      </c>
+          <t>-45.4968</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
           <t>GT</t>
@@ -2122,7 +2240,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2022/Aug/24</t>
+          <t>2022/Aug/26</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2131,28 +2249,24 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>61.2349</t>
+          <t>61.2351</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>-45.4969</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+          <t>-45.4968</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
           <t>GT</t>
@@ -2165,20 +2279,20 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2022/Aug/27</t>
+          <t>2022/Aug/26</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>sibirca</t>
+          <t>contorta</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2188,14 +2302,10 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>-45.4969</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+          <t>-45.4967</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
           <t>GT</t>
@@ -2213,32 +2323,28 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>sibirca</t>
+          <t>contorta</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>61.2354</t>
+          <t>61.2351</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>-45.4973</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>-25</t>
-        </is>
-      </c>
+          <t>-45.4966</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
           <t>GT</t>
@@ -2251,7 +2357,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2022/Aug/26</t>
+          <t>2022/Aug/24</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2260,28 +2366,24 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>61.2353</t>
+          <t>61.2349</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>-45.4973</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>-25</t>
-        </is>
-      </c>
+          <t>-45.4967</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
           <t>GT</t>
@@ -2294,7 +2396,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2022/Aug/26</t>
+          <t>2022/Aug/24</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2307,24 +2409,20 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>61.2353</t>
+          <t>61.2349</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>-45.4974</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>-25</t>
-        </is>
-      </c>
+          <t>-45.4965</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
           <t>GT</t>
@@ -2337,7 +2435,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2022/Aug/26</t>
+          <t>2022/Aug/24</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2346,28 +2444,24 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>61.2353</t>
+          <t>61.2349</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>-45.4973</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>-25</t>
-        </is>
-      </c>
+          <t>-45.4967</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
           <t>GT</t>
@@ -2380,40 +2474,36 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2022/Aug/26</t>
+          <t>2022/Aug/27</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>sibirca</t>
+          <t>contorta</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>63</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>61.2352</t>
+          <t>61.2353</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>-45.4973</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>-25</t>
-        </is>
-      </c>
+          <t>-45.4969</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>GT</t>
+          <t>Qassiarsuk School</t>
         </is>
       </c>
     </row>
@@ -2423,7 +2513,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2022/Aug/26</t>
+          <t>2022/Aug/27</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2432,31 +2522,27 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>64</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>61.2352</t>
+          <t>61.2353</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>-45.4973</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>-25</t>
-        </is>
-      </c>
+          <t>-45.4970</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>GT</t>
+          <t>Qassiarsuk School</t>
         </is>
       </c>
     </row>
@@ -2466,37 +2552,33 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2022/Aug/26</t>
+          <t>2022/Aug/27</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>sibirca</t>
+          <t>engelmanni</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>65</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>61.2352</t>
+          <t>61.2353</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>-45.4972</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>-25</t>
-        </is>
-      </c>
+          <t>-45.4971</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
           <t>GT</t>
@@ -2509,7 +2591,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2022/Aug/26</t>
+          <t>2022/Aug/27</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2518,28 +2600,24 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>66</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>61.2351</t>
+          <t>61.2353</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>-45.4973</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>-25</t>
-        </is>
-      </c>
+          <t>-45.4971</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
           <t>GT</t>
@@ -2552,37 +2630,33 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2022/Aug/26</t>
+          <t>2022/Aug/27</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>sibirca</t>
+          <t>contorta</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>67</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>61.2351</t>
+          <t>61.2353</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>-45.4973</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>-25</t>
-        </is>
-      </c>
+          <t>-45.4971</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
           <t>GT</t>
@@ -2595,37 +2669,33 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2022/Aug/26</t>
+          <t>2022/Aug/27</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>engelmanni</t>
+          <t>sibirca</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>68</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>61.2351</t>
+          <t>61.2353</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>-45.4973</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>-25</t>
-        </is>
-      </c>
+          <t>-45.4971</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
           <t>GT</t>
@@ -2638,37 +2708,33 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2022/Aug/24</t>
+          <t>2022/Aug/27</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>engelmanni</t>
+          <t>sibirca</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>69</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>61.2349</t>
+          <t>61.2353</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>-45.4965</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
+          <t>-45.4971</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
           <t>GT</t>
@@ -2686,15 +2752,15 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>engelmanni</t>
+          <t>sibirca</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -2707,11 +2773,7 @@
           <t>-45.4969</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
           <t>GT</t>
@@ -2724,7 +2786,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2022/Aug/26</t>
+          <t>2022/Aug/27</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2733,28 +2795,24 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>70</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>61.2351</t>
+          <t>61.2353</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>-45.4972</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>-24</t>
-        </is>
-      </c>
+          <t>-45.4971</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
           <t>GT</t>
@@ -2767,7 +2825,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2022/Aug/26</t>
+          <t>2022/Aug/27</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2776,28 +2834,24 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>9.5</v>
+        <v>20</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>71</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>61.2350</t>
+          <t>61.2353</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>-45.4972</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>-24</t>
-        </is>
-      </c>
+          <t>-45.4971</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
           <t>GT</t>
@@ -2810,7 +2864,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2022/Aug/26</t>
+          <t>2022/Aug/27</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2819,28 +2873,24 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>61.2350</t>
+          <t>61.2352</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>-45.4971</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>-27</t>
-        </is>
-      </c>
+          <t>-45.4972</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
           <t>GT</t>
@@ -2853,7 +2903,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2022/Aug/26</t>
+          <t>2022/Aug/27</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2862,28 +2912,24 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>73</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>61.2350</t>
+          <t>61.2352</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>-45.4970</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>-25</t>
-        </is>
-      </c>
+          <t>-45.4972</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
           <t>GT</t>
@@ -2896,7 +2942,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2022/Aug/26</t>
+          <t>2022/Aug/27</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2905,28 +2951,24 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>61.2351</t>
+          <t>61.2352</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>-45.4970</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>-25</t>
-        </is>
-      </c>
+          <t>-45.4972</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
           <t>GT</t>
@@ -2939,7 +2981,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2022/Aug/26</t>
+          <t>2022/Aug/24</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2948,16 +2990,16 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>8</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>61.2351</t>
+          <t>61.2349</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -2965,14 +3007,10 @@
           <t>-45.4969</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>-23</t>
-        </is>
-      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Maurice van Tiggelen</t>
+          <t>GT</t>
         </is>
       </c>
     </row>
@@ -2982,7 +3020,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2022/Aug/26</t>
+          <t>2022/Aug/24</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2991,28 +3029,24 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>9</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>61.2351</t>
+          <t>61.2349</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>-45.4968</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>-23</t>
-        </is>
-      </c>
+          <t>-45.4969</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
           <t>GT</t>
@@ -3025,7 +3059,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2022/Aug/26</t>
+          <t>2022/Aug/27</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3034,31 +3068,27 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>Aili</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>61.2351</t>
+          <t>61.2349</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>-45.4968</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>-23</t>
-        </is>
-      </c>
+          <t>-45.4965</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>GT</t>
+          <t>Narsaq School</t>
         </is>
       </c>
     </row>
@@ -3068,40 +3098,36 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2022/Aug/26</t>
+          <t>2022/Aug/27</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>contorta</t>
+          <t>sibirca</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>Alya DP</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>61.2351</t>
+          <t>61.2352</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>-45.4967</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>-23</t>
-        </is>
-      </c>
+          <t>-45.4970</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>GT</t>
+          <t>Qassiarsuk School</t>
         </is>
       </c>
     </row>
@@ -3111,40 +3137,36 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2022/Aug/26</t>
+          <t>2022/Aug/27</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>contorta</t>
+          <t>sitchensis</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>Charlie</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>61.2351</t>
+          <t>61.2346</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>-45.4966</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>-23</t>
-        </is>
-      </c>
+          <t>-45.4958</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>GT</t>
+          <t>Narsaq School</t>
         </is>
       </c>
     </row>
@@ -3154,7 +3176,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2022/Aug/24</t>
+          <t>2022/Aug/27</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3163,28 +3185,24 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>Hansgaard</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>61.2349</t>
+          <t>61.2351</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>-45.4967</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>-16</t>
-        </is>
-      </c>
+          <t>-45.4972</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
           <t>GT</t>
@@ -3197,40 +3215,36 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2022/Aug/24</t>
+          <t>2022/Aug/27</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>sibirca</t>
+          <t>sitchensis</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>Kanku</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>61.2349</t>
+          <t>61.2346</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>-45.4965</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>-16</t>
-        </is>
-      </c>
+          <t>-45.4959</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>GT</t>
+          <t>Narsaq School</t>
         </is>
       </c>
     </row>
@@ -3240,7 +3254,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2022/Aug/24</t>
+          <t>2022/Aug/27</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3249,31 +3263,27 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>Paige G</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>61.2349</t>
+          <t>61.2352</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>-45.4967</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>-16</t>
-        </is>
-      </c>
+          <t>-45.4971</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
-          <t>GT</t>
+          <t>Qassiarsuk School</t>
         </is>
       </c>
     </row>
@@ -3288,35 +3298,31 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>contorta</t>
+          <t>sitchensis</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>Paninnguaq</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>61.2353</t>
+          <t>61.2346</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>-45.4969</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>-45.4957</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Qassiarsuk School</t>
+          <t>Narsaq School</t>
         </is>
       </c>
     </row>
@@ -3335,11 +3341,11 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>Sam S</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -3352,11 +3358,7 @@
           <t>-45.4970</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
           <t>Qassiarsuk School</t>
@@ -3374,936 +3376,29 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>engelmanni</t>
+          <t>sibirca</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>Viiva</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>61.2353</t>
+          <t>61.2349</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>-45.4971</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+          <t>-45.4964</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>2022/Aug/27</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>sibirca</t>
-        </is>
-      </c>
-      <c r="D77" t="n">
-        <v>13</v>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>61.2353</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>-45.4971</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>2022/Aug/27</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>contorta</t>
-        </is>
-      </c>
-      <c r="D78" t="n">
-        <v>14</v>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>67</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>61.2353</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>-45.4971</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>2022/Aug/27</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>sibirca</t>
-        </is>
-      </c>
-      <c r="D79" t="n">
-        <v>12</v>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>61.2353</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>-45.4971</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>2022/Aug/27</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>sibirca</t>
-        </is>
-      </c>
-      <c r="D80" t="n">
-        <v>16</v>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>69</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>61.2353</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>-45.4971</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>-0</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>2022/Aug/24</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>sibirca</t>
-        </is>
-      </c>
-      <c r="D81" t="n">
-        <v>7</v>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>61.2349</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>-45.4969</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>2022/Aug/27</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>sibirca</t>
-        </is>
-      </c>
-      <c r="D82" t="n">
-        <v>14</v>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>61.2353</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>-45.4971</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>-0</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>2022/Aug/27</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>sibirca</t>
-        </is>
-      </c>
-      <c r="D83" t="n">
-        <v>20</v>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>61.2353</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>-45.4971</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>-0</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>2022/Aug/27</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>sibirca</t>
-        </is>
-      </c>
-      <c r="D84" t="n">
-        <v>13</v>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>61.2352</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>-45.4972</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>-0</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>2022/Aug/27</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>sibirca</t>
-        </is>
-      </c>
-      <c r="D85" t="n">
-        <v>17</v>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>73</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>61.2352</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>-45.4972</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>-0</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>2022/Aug/27</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>sibirca</t>
-        </is>
-      </c>
-      <c r="D86" t="n">
-        <v>9</v>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>61.2352</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>-45.4972</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>-0</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>2022/Aug/24</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>sibirca</t>
-        </is>
-      </c>
-      <c r="D87" t="n">
-        <v>11</v>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>61.2349</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>-45.4969</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>2022/Aug/24</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>sibirca</t>
-        </is>
-      </c>
-      <c r="D88" t="n">
-        <v>20</v>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>61.2349</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>-45.4969</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>2022/Aug/27</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="D89" t="n">
-        <v>17</v>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>Aili</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>61.2349</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>-45.4965</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>Narsaq School</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>2022/Aug/27</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>sibirca</t>
-        </is>
-      </c>
-      <c r="D90" t="n">
-        <v>21</v>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>Alya DP</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>61.2352</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>-45.4970</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>Qassiarsuk School</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>2022/Aug/27</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="D91" t="n">
-        <v>82</v>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>Charlie</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>61.2346</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>-45.4958</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>Narsaq School</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>2022/Aug/27</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>sibirca</t>
-        </is>
-      </c>
-      <c r="D92" t="n">
-        <v>17</v>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>Hansgaard</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>61.2351</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>-45.4972</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>2022/Aug/27</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="D93" t="n">
-        <v>84</v>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>Kanku</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>61.2346</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>-45.4959</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>Narsaq School</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>2022/Aug/27</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>sibirca</t>
-        </is>
-      </c>
-      <c r="D94" t="n">
-        <v>19</v>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>Paige G</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>61.2352</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>-45.4971</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>Qassiarsuk School</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>2022/Aug/27</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="D95" t="n">
-        <v>25</v>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>Paninnguaq</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>61.2346</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>-45.4957</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>Narsaq School</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>2022/Aug/27</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>sibirca</t>
-        </is>
-      </c>
-      <c r="D96" t="n">
-        <v>21</v>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>Sam S</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>61.2353</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>-45.4970</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>-0</t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>Qassiarsuk School</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>2022/Aug/27</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="D97" t="n">
-        <v>22</v>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>Viiva</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>61.2349</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>-45.4964</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I97" t="inlineStr">
         <is>
           <t>Narsaq School</t>
         </is>
